--- a/suggestion.xlsx
+++ b/suggestion.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43BE10A-09BC-4623-8E05-3385374CCC25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姚凯楠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,11 +28,19 @@
     <t>menuBackCallback的时候为什么不采用pop的方法，感觉back的时候还使用push会增加开销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>xbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能不能告诉我一下在地图上添加精灵到中间或者某个特定位置的代码，我要测试生成小兵和塔的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,16 +359,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43609</v>
       </c>
@@ -370,6 +377,17 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/suggestion.xlsx
+++ b/suggestion.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF56037-1A0E-4C60-8AA2-0399DBC3131B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姚凯楠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,13 +35,33 @@
   </si>
   <si>
     <t>能不能告诉我一下在地图上添加精灵到中间或者某个特定位置的代码，我要测试生成小兵和塔的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复：rdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先创建精灵，用该对象的setposition（）函数设定位置，参数Vec2(visibleSize.width / 2 + origin.x, visibleSize.height / 2 + origin.y)为居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后this对象的addchild函数添加 参数为添加的对象和层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本合并推荐大家用外部合并工具比对，直接用某一个人的版本合并会导致丢失另一个人的更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,16 +380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43609</v>
       </c>
@@ -379,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.25</v>
       </c>
@@ -388,6 +409,30 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/suggestion.xlsx
+++ b/suggestion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF56037-1A0E-4C60-8AA2-0399DBC3131B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB0228C-F081-4AEF-8F37-6B79808D0379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姚凯楠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>版本合并推荐大家用外部合并工具比对，直接用某一个人的版本合并会导致丢失另一个人的更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵等单位的血条更新做在这个单位的update函数里，ui这边无法实时更新所有信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我准备写一个整个游戏场景的控制，游戏内操作在这个文件里，而不是现在全在地图场景里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,6 +447,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/suggestion.xlsx
+++ b/suggestion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB0228C-F081-4AEF-8F37-6B79808D0379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDDA2B-4DB2-4197-9AE1-8EF4DB99E319}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姚凯楠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>我准备写一个整个游戏场景的控制，游戏内操作在这个文件里，而不是现在全在地图场景里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚凯楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于装备的实现，我觉得使用一个map的键值对存储这些装备会非常好管理，不管是出售还是购买应该会很好弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前一直有一个诡异的bug，在进入地图之后点击返回有概率出现bug导致游戏终止，由于这个问题出现的非常随机我没有找到规律，所以没有什么解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后还有一点就是我现在所有的setposition的位置其实都是错的，到时候游戏地图上有角色之后有修改setposition的代码，不然会出现商店的界面没有跟着角色一起移动的诡异场面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时间的话多收集一点素材，现在的图片素材太劣质了，不可能交上去的，到时候还有很多的图标的位置需要调整，不过这是后话了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望早点看到能够的角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,6 +487,37 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
